--- a/task_management_system/tasks1.xlsx
+++ b/task_management_system/tasks1.xlsx
@@ -16,29 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>DAS - Daily report</t>
   </si>
   <si>
-    <t>DAS Weekly reports (Mon)</t>
-  </si>
-  <si>
-    <t>DAS Monthly reports (Mon)</t>
-  </si>
-  <si>
     <t>DAS-Appointment Tracker</t>
   </si>
   <si>
-    <t>Updater - Weekly  testing ticket ( Mon - Tue)</t>
-  </si>
-  <si>
-    <t>IHCM - Daily report</t>
-  </si>
-  <si>
-    <t>IHCM - Weekly report</t>
-  </si>
-  <si>
     <t>CIT - Updater Skill-wise center-wise performance daily report</t>
   </si>
   <si>
@@ -52,12 +37,6 @@
   </si>
   <si>
     <t>Call Statistics and Unavailable Codes daily report (MTD)</t>
-  </si>
-  <si>
-    <t>IHCM PCC Duplicate Checks (Thurs)</t>
-  </si>
-  <si>
-    <t>LinkedIN (Mon - Fri)</t>
   </si>
   <si>
     <t>Task Name</t>
@@ -125,35 +104,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -458,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A54"/>
+  <dimension ref="A1:A49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -469,7 +420,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
@@ -508,39 +459,25 @@
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -644,24 +581,9 @@
     <row r="49" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A54">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="vidhya">
+  <conditionalFormatting sqref="A2:A49">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="vidhya">
       <formula>NOT(ISERROR(SEARCH("vidhya",A2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/task_management_system/tasks1.xlsx
+++ b/task_management_system/tasks1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>DAS - Daily report</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Task Name</t>
+  </si>
+  <si>
+    <t>Estimated Time</t>
   </si>
 </sst>
 </file>
@@ -409,7 +412,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A49"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,68 +421,92 @@
     <col min="1" max="1" width="63.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">

--- a/task_management_system/tasks1.xlsx
+++ b/task_management_system/tasks1.xlsx
@@ -42,7 +42,7 @@
     <t>Task Name</t>
   </si>
   <si>
-    <t>Estimated Time</t>
+    <t>Estimated Time(in minutes)</t>
   </si>
 </sst>
 </file>
@@ -419,6 +419,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
